--- a/ARG_SPREAD.xlsx
+++ b/ARG_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="310">
   <si>
     <t>Div</t>
   </si>
@@ -371,6 +371,57 @@
     <t>52</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>ARG</t>
   </si>
   <si>
@@ -605,6 +656,15 @@
     <t>4-6</t>
   </si>
   <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -831,6 +891,57 @@
   </si>
   <si>
     <t>2024-06-03-Estudiantes-Godoy Cruz</t>
+  </si>
+  <si>
+    <t>2024-06-04-Barracas Central-Huracan</t>
+  </si>
+  <si>
+    <t>2024-06-04-Banfield-Newells OB</t>
+  </si>
+  <si>
+    <t>2024-06-04-Independiente Rivadavia-Union</t>
+  </si>
+  <si>
+    <t>2024-06-12-Godoy Cruz-Rosario Central</t>
+  </si>
+  <si>
+    <t>2024-06-12-Arg Juniors-Central Cordoba</t>
+  </si>
+  <si>
+    <t>2024-06-12-Independiente-Banfield</t>
+  </si>
+  <si>
+    <t>2024-06-12-Gimnasia–LP-Barracas Central</t>
+  </si>
+  <si>
+    <t>2024-06-13-Deportivo Riestra-River Plate</t>
+  </si>
+  <si>
+    <t>2024-06-13-Tigre-Belgrano</t>
+  </si>
+  <si>
+    <t>2024-06-13-Sarmiento-Estudiantes</t>
+  </si>
+  <si>
+    <t>2024-06-13-Lanus-Racing Club</t>
+  </si>
+  <si>
+    <t>2024-06-13-Newells OB-Instituto</t>
+  </si>
+  <si>
+    <t>2024-06-14-Talleres-Platense</t>
+  </si>
+  <si>
+    <t>2024-06-14-Boca Juniors-Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>2024-06-15-Union-San Lorenzo</t>
+  </si>
+  <si>
+    <t>2024-06-15-Huracan-Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>2024-06-15-Atletico Tucuman-Defensa Justicia</t>
   </si>
 </sst>
 </file>
@@ -1094,16 +1205,16 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45422.0</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1112,7 +1223,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I2" t="n">
         <v>1.1</v>
@@ -1151,7 +1262,7 @@
         <v>10.0</v>
       </c>
       <c r="U2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="V2" t="n">
         <v>3.0</v>
@@ -1163,16 +1274,16 @@
         <v>22.0</v>
       </c>
       <c r="Y2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="Z2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB2" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC2" t="n">
         <v>7.0</v>
@@ -1181,10 +1292,10 @@
         <v>0.0</v>
       </c>
       <c r="AE2" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AF2" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AG2" t="n">
         <v>3.0</v>
@@ -1300,16 +1411,16 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45422.0</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F3" t="n">
         <v>3.0</v>
@@ -1318,7 +1429,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I3" t="n">
         <v>1.4</v>
@@ -1357,7 +1468,7 @@
         <v>12.0</v>
       </c>
       <c r="U3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="V3" t="n">
         <v>5.0</v>
@@ -1369,16 +1480,16 @@
         <v>22.0</v>
       </c>
       <c r="Y3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Z3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC3" t="n">
         <v>5.0</v>
@@ -1387,10 +1498,10 @@
         <v>0.0</v>
       </c>
       <c r="AE3" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AF3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AG3" t="n">
         <v>5.0</v>
@@ -1506,16 +1617,16 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45422.0</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1524,7 +1635,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I4" t="n">
         <v>1.2</v>
@@ -1563,7 +1674,7 @@
         <v>17.0</v>
       </c>
       <c r="U4" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="V4" t="n">
         <v>2.0</v>
@@ -1575,16 +1686,16 @@
         <v>30.0</v>
       </c>
       <c r="Y4" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="Z4" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA4" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB4" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC4" t="n">
         <v>7.0</v>
@@ -1593,10 +1704,10 @@
         <v>0.0</v>
       </c>
       <c r="AE4" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AF4" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AG4" t="n">
         <v>2.0</v>
@@ -1712,16 +1823,16 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45423.0</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1730,7 +1841,7 @@
         <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I5" t="n">
         <v>1.6</v>
@@ -1769,7 +1880,7 @@
         <v>14.0</v>
       </c>
       <c r="U5" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="V5" t="n">
         <v>4.0</v>
@@ -1781,16 +1892,16 @@
         <v>27.0</v>
       </c>
       <c r="Y5" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Z5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC5" t="n">
         <v>7.0</v>
@@ -1799,10 +1910,10 @@
         <v>1.0</v>
       </c>
       <c r="AE5" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AF5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="AG5" t="n">
         <v>4.0</v>
@@ -1918,16 +2029,16 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45423.0</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1936,7 +2047,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I6" t="n">
         <v>1.9</v>
@@ -1975,7 +2086,7 @@
         <v>6.0</v>
       </c>
       <c r="U6" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="V6" t="n">
         <v>1.0</v>
@@ -1987,16 +2098,16 @@
         <v>21.0</v>
       </c>
       <c r="Y6" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Z6" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA6" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB6" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC6" t="n">
         <v>1.0</v>
@@ -2005,10 +2116,10 @@
         <v>0.0</v>
       </c>
       <c r="AE6" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AF6" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="AG6" t="n">
         <v>1.0</v>
@@ -2124,16 +2235,16 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45423.0</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2142,7 +2253,7 @@
         <v>3.0</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I7" t="n">
         <v>0.4</v>
@@ -2181,7 +2292,7 @@
         <v>14.0</v>
       </c>
       <c r="U7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="V7" t="n">
         <v>4.0</v>
@@ -2193,16 +2304,16 @@
         <v>29.0</v>
       </c>
       <c r="Y7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Z7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC7" t="n">
         <v>11.0</v>
@@ -2211,10 +2322,10 @@
         <v>1.0</v>
       </c>
       <c r="AE7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AF7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="AG7" t="n">
         <v>4.0</v>
@@ -2330,16 +2441,16 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45423.0</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F8" t="n">
         <v>3.0</v>
@@ -2348,7 +2459,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I8" t="n">
         <v>2.6</v>
@@ -2387,7 +2498,7 @@
         <v>12.0</v>
       </c>
       <c r="U8" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="V8" t="n">
         <v>3.0</v>
@@ -2399,16 +2510,16 @@
         <v>29.0</v>
       </c>
       <c r="Y8" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Z8" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA8" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB8" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC8" t="n">
         <v>6.0</v>
@@ -2417,10 +2528,10 @@
         <v>1.0</v>
       </c>
       <c r="AE8" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AF8" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AG8" t="n">
         <v>3.0</v>
@@ -2536,16 +2647,16 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45424.0</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
@@ -2554,7 +2665,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I9" t="n">
         <v>0.5</v>
@@ -2593,7 +2704,7 @@
         <v>12.0</v>
       </c>
       <c r="U9" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V9" t="n">
         <v>1.0</v>
@@ -2605,16 +2716,16 @@
         <v>25.0</v>
       </c>
       <c r="Y9" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Z9" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA9" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB9" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC9" t="n">
         <v>9.0</v>
@@ -2623,10 +2734,10 @@
         <v>0.0</v>
       </c>
       <c r="AE9" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AF9" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AG9" t="n">
         <v>1.0</v>
@@ -2742,16 +2853,16 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45424.0</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -2760,7 +2871,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I10" t="n">
         <v>0.9</v>
@@ -2799,7 +2910,7 @@
         <v>14.0</v>
       </c>
       <c r="U10" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="V10" t="n">
         <v>1.0</v>
@@ -2811,16 +2922,16 @@
         <v>25.0</v>
       </c>
       <c r="Y10" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Z10" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA10" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB10" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC10" t="n">
         <v>3.0</v>
@@ -2829,10 +2940,10 @@
         <v>0.0</v>
       </c>
       <c r="AE10" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="AF10" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="AG10" t="n">
         <v>1.0</v>
@@ -2948,16 +3059,16 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45424.0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -2966,7 +3077,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I11" t="n">
         <v>0.8</v>
@@ -3005,7 +3116,7 @@
         <v>12.0</v>
       </c>
       <c r="U11" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="V11" t="n">
         <v>2.0</v>
@@ -3017,16 +3128,16 @@
         <v>22.0</v>
       </c>
       <c r="Y11" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Z11" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA11" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB11" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC11" t="n">
         <v>2.0</v>
@@ -3035,10 +3146,10 @@
         <v>1.0</v>
       </c>
       <c r="AE11" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AF11" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AG11" t="n">
         <v>2.0</v>
@@ -3154,16 +3265,16 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45424.0</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F12" t="n">
         <v>4.0</v>
@@ -3172,7 +3283,7 @@
         <v>4.0</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I12" t="n">
         <v>1.4</v>
@@ -3211,7 +3322,7 @@
         <v>10.0</v>
       </c>
       <c r="U12" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="V12" t="n">
         <v>8.0</v>
@@ -3223,16 +3334,16 @@
         <v>24.0</v>
       </c>
       <c r="Y12" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Z12" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA12" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB12" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC12" t="n">
         <v>5.0</v>
@@ -3241,10 +3352,10 @@
         <v>0.0</v>
       </c>
       <c r="AE12" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AF12" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AG12" t="n">
         <v>8.0</v>
@@ -3360,16 +3471,16 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45424.0</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F13" t="n">
         <v>1.0</v>
@@ -3378,7 +3489,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I13" t="n">
         <v>1.6</v>
@@ -3417,7 +3528,7 @@
         <v>11.0</v>
       </c>
       <c r="U13" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V13" t="n">
         <v>1.0</v>
@@ -3429,16 +3540,16 @@
         <v>23.0</v>
       </c>
       <c r="Y13" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Z13" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA13" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB13" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC13" t="n">
         <v>4.0</v>
@@ -3447,10 +3558,10 @@
         <v>0.0</v>
       </c>
       <c r="AE13" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AF13" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AG13" t="n">
         <v>1.0</v>
@@ -3566,16 +3677,16 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45425.0</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F14" t="n">
         <v>3.0</v>
@@ -3584,7 +3695,7 @@
         <v>1.0</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
@@ -3623,7 +3734,7 @@
         <v>8.0</v>
       </c>
       <c r="U14" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="V14" t="n">
         <v>4.0</v>
@@ -3635,16 +3746,16 @@
         <v>22.0</v>
       </c>
       <c r="Y14" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Z14" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA14" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB14" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC14" t="n">
         <v>6.0</v>
@@ -3653,10 +3764,10 @@
         <v>0.0</v>
       </c>
       <c r="AE14" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AF14" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AG14" t="n">
         <v>4.0</v>
@@ -3772,16 +3883,16 @@
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45425.0</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F15" t="n">
         <v>1.0</v>
@@ -3790,7 +3901,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I15" t="n">
         <v>1.3</v>
@@ -3829,7 +3940,7 @@
         <v>15.0</v>
       </c>
       <c r="U15" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V15" t="n">
         <v>1.0</v>
@@ -3841,16 +3952,16 @@
         <v>25.0</v>
       </c>
       <c r="Y15" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA15" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB15" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC15" t="n">
         <v>6.0</v>
@@ -3859,10 +3970,10 @@
         <v>0.0</v>
       </c>
       <c r="AE15" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AF15" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AG15" t="n">
         <v>1.0</v>
@@ -3978,16 +4089,16 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45430.0</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -3996,7 +4107,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I16" t="n">
         <v>0.4</v>
@@ -4035,7 +4146,7 @@
         <v>16.0</v>
       </c>
       <c r="U16" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="V16" t="n">
         <v>0.0</v>
@@ -4047,16 +4158,16 @@
         <v>29.0</v>
       </c>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA16" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB16" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC16" t="n">
         <v>6.0</v>
@@ -4065,10 +4176,10 @@
         <v>0.0</v>
       </c>
       <c r="AE16" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AF16" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG16" t="n">
         <v>0.0</v>
@@ -4184,16 +4295,16 @@
         <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45430.0</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F17" t="n">
         <v>3.0</v>
@@ -4202,7 +4313,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I17" t="n">
         <v>1.2</v>
@@ -4241,7 +4352,7 @@
         <v>15.0</v>
       </c>
       <c r="U17" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="V17" t="n">
         <v>3.0</v>
@@ -4253,16 +4364,16 @@
         <v>27.0</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA17" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB17" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC17" t="n">
         <v>5.0</v>
@@ -4271,10 +4382,10 @@
         <v>0.0</v>
       </c>
       <c r="AE17" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AF17" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AG17" t="n">
         <v>3.0</v>
@@ -4390,16 +4501,16 @@
         <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45430.0</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F18" t="n">
         <v>1.0</v>
@@ -4408,7 +4519,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I18" t="n">
         <v>1.2</v>
@@ -4447,7 +4558,7 @@
         <v>12.0</v>
       </c>
       <c r="U18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V18" t="n">
         <v>2.0</v>
@@ -4459,16 +4570,16 @@
         <v>21.0</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA18" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB18" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC18" t="n">
         <v>5.0</v>
@@ -4477,10 +4588,10 @@
         <v>0.0</v>
       </c>
       <c r="AE18" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AF18" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AG18" t="n">
         <v>2.0</v>
@@ -4596,16 +4707,16 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45430.0</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -4614,7 +4725,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I19" t="n">
         <v>0.6</v>
@@ -4653,7 +4764,7 @@
         <v>8.0</v>
       </c>
       <c r="U19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V19" t="n">
         <v>2.0</v>
@@ -4665,16 +4776,16 @@
         <v>18.0</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="Z19" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA19" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB19" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC19" t="n">
         <v>1.0</v>
@@ -4683,10 +4794,10 @@
         <v>1.0</v>
       </c>
       <c r="AE19" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AF19" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AG19" t="n">
         <v>2.0</v>
@@ -4802,17 +4913,17 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45431.0</v>
       </c>
       <c r="D20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
         <v>137</v>
       </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
       <c r="F20" t="n">
         <v>1.0</v>
       </c>
@@ -4820,7 +4931,7 @@
         <v>1.0</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I20" t="n">
         <v>0.6</v>
@@ -4859,7 +4970,7 @@
         <v>25.0</v>
       </c>
       <c r="U20" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V20" t="n">
         <v>2.0</v>
@@ -4871,16 +4982,16 @@
         <v>39.0</v>
       </c>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Z20" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA20" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB20" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC20" t="n">
         <v>6.0</v>
@@ -4889,10 +5000,10 @@
         <v>0.0</v>
       </c>
       <c r="AE20" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AF20" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG20" t="n">
         <v>2.0</v>
@@ -5008,16 +5119,16 @@
         <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45431.0</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -5026,7 +5137,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I21" t="n">
         <v>1.2</v>
@@ -5065,7 +5176,7 @@
         <v>13.0</v>
       </c>
       <c r="U21" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="V21" t="n">
         <v>0.0</v>
@@ -5077,16 +5188,16 @@
         <v>26.0</v>
       </c>
       <c r="Y21" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Z21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC21" t="n">
         <v>7.0</v>
@@ -5095,10 +5206,10 @@
         <v>0.0</v>
       </c>
       <c r="AE21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AG21" t="n">
         <v>0.0</v>
@@ -5214,16 +5325,16 @@
         <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45431.0</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F22" t="n">
         <v>2.0</v>
@@ -5232,7 +5343,7 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I22" t="n">
         <v>0.5</v>
@@ -5271,7 +5382,7 @@
         <v>15.0</v>
       </c>
       <c r="U22" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="V22" t="n">
         <v>2.0</v>
@@ -5283,16 +5394,16 @@
         <v>24.0</v>
       </c>
       <c r="Y22" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Z22" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC22" t="n">
         <v>6.0</v>
@@ -5301,10 +5412,10 @@
         <v>0.0</v>
       </c>
       <c r="AE22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AF22" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AG22" t="n">
         <v>2.0</v>
@@ -5420,17 +5531,17 @@
         <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45431.0</v>
       </c>
       <c r="D23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" t="s">
         <v>140</v>
       </c>
-      <c r="E23" t="s">
-        <v>123</v>
-      </c>
       <c r="F23" t="n">
         <v>1.0</v>
       </c>
@@ -5438,7 +5549,7 @@
         <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I23" t="n">
         <v>0.9</v>
@@ -5477,7 +5588,7 @@
         <v>10.0</v>
       </c>
       <c r="U23" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V23" t="n">
         <v>2.0</v>
@@ -5489,16 +5600,16 @@
         <v>22.0</v>
       </c>
       <c r="Y23" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Z23" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA23" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB23" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC23" t="n">
         <v>4.0</v>
@@ -5507,10 +5618,10 @@
         <v>1.0</v>
       </c>
       <c r="AE23" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="n">
         <v>2.0</v>
@@ -5626,16 +5737,16 @@
         <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45431.0</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
@@ -5644,7 +5755,7 @@
         <v>4.0</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I24" t="n">
         <v>1.5</v>
@@ -5683,7 +5794,7 @@
         <v>15.0</v>
       </c>
       <c r="U24" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="V24" t="n">
         <v>6.0</v>
@@ -5695,16 +5806,16 @@
         <v>29.0</v>
       </c>
       <c r="Y24" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Z24" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA24" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB24" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC24" t="n">
         <v>4.0</v>
@@ -5713,10 +5824,10 @@
         <v>0.0</v>
       </c>
       <c r="AE24" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="n">
         <v>6.0</v>
@@ -5832,16 +5943,16 @@
         <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45432.0</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F25" t="n">
         <v>2.0</v>
@@ -5850,7 +5961,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I25" t="n">
         <v>1.7</v>
@@ -5889,7 +6000,7 @@
         <v>12.0</v>
       </c>
       <c r="U25" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="V25" t="n">
         <v>2.0</v>
@@ -5901,16 +6012,16 @@
         <v>26.0</v>
       </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Z25" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA25" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB25" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC25" t="n">
         <v>7.0</v>
@@ -5919,10 +6030,10 @@
         <v>0.0</v>
       </c>
       <c r="AE25" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="n">
         <v>2.0</v>
@@ -6038,16 +6149,16 @@
         <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45432.0</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -6056,7 +6167,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I26" t="n">
         <v>0.9</v>
@@ -6095,7 +6206,7 @@
         <v>21.0</v>
       </c>
       <c r="U26" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V26" t="n">
         <v>2.0</v>
@@ -6107,16 +6218,16 @@
         <v>31.0</v>
       </c>
       <c r="Y26" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Z26" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA26" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB26" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC26" t="n">
         <v>8.0</v>
@@ -6125,10 +6236,10 @@
         <v>0.0</v>
       </c>
       <c r="AE26" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="n">
         <v>2.0</v>
@@ -6244,16 +6355,16 @@
         <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45432.0</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -6262,7 +6373,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I27" t="n">
         <v>0.9</v>
@@ -6301,7 +6412,7 @@
         <v>10.0</v>
       </c>
       <c r="U27" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V27" t="n">
         <v>2.0</v>
@@ -6313,16 +6424,16 @@
         <v>18.0</v>
       </c>
       <c r="Y27" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Z27" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA27" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB27" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC27" t="n">
         <v>4.0</v>
@@ -6331,10 +6442,10 @@
         <v>0.0</v>
       </c>
       <c r="AE27" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="n">
         <v>2.0</v>
@@ -6450,16 +6561,16 @@
         <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45432.0</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F28" t="n">
         <v>3.0</v>
@@ -6468,7 +6579,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I28" t="n">
         <v>1.5</v>
@@ -6507,7 +6618,7 @@
         <v>14.0</v>
       </c>
       <c r="U28" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="V28" t="n">
         <v>3.0</v>
@@ -6519,16 +6630,16 @@
         <v>31.0</v>
       </c>
       <c r="Y28" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Z28" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA28" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB28" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC28" t="n">
         <v>9.0</v>
@@ -6537,10 +6648,10 @@
         <v>1.0</v>
       </c>
       <c r="AE28" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AF28" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="n">
         <v>3.0</v>
@@ -6656,16 +6767,16 @@
         <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45433.0</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -6674,7 +6785,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I29" t="n">
         <v>0.5</v>
@@ -6713,7 +6824,7 @@
         <v>16.0</v>
       </c>
       <c r="U29" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V29" t="n">
         <v>1.0</v>
@@ -6725,16 +6836,16 @@
         <v>33.0</v>
       </c>
       <c r="Y29" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="Z29" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA29" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB29" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC29" t="n">
         <v>10.0</v>
@@ -6743,10 +6854,10 @@
         <v>0.0</v>
       </c>
       <c r="AE29" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="n">
         <v>1.0</v>
@@ -6862,16 +6973,16 @@
         <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45436.0</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -6880,7 +6991,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I30" t="n">
         <v>2.4</v>
@@ -6919,7 +7030,7 @@
         <v>14.0</v>
       </c>
       <c r="U30" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="V30" t="n">
         <v>2.0</v>
@@ -6931,16 +7042,16 @@
         <v>26.0</v>
       </c>
       <c r="Y30" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Z30" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA30" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB30" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC30" t="n">
         <v>4.0</v>
@@ -6949,10 +7060,10 @@
         <v>0.0</v>
       </c>
       <c r="AE30" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="n">
         <v>2.0</v>
@@ -7068,16 +7179,16 @@
         <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45436.0</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7086,7 +7197,7 @@
         <v>4.0</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I31" t="n">
         <v>0.6</v>
@@ -7125,7 +7236,7 @@
         <v>8.0</v>
       </c>
       <c r="U31" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="V31" t="n">
         <v>4.0</v>
@@ -7137,16 +7248,16 @@
         <v>21.0</v>
       </c>
       <c r="Y31" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="Z31" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA31" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB31" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC31" t="n">
         <v>6.0</v>
@@ -7155,10 +7266,10 @@
         <v>0.0</v>
       </c>
       <c r="AE31" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="n">
         <v>4.0</v>
@@ -7274,16 +7385,16 @@
         <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45436.0</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -7292,7 +7403,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I32" t="n">
         <v>3.1</v>
@@ -7331,7 +7442,7 @@
         <v>8.0</v>
       </c>
       <c r="U32" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="V32" t="n">
         <v>3.0</v>
@@ -7343,16 +7454,16 @@
         <v>28.0</v>
       </c>
       <c r="Y32" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Z32" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA32" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB32" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC32" t="n">
         <v>9.0</v>
@@ -7361,10 +7472,10 @@
         <v>1.0</v>
       </c>
       <c r="AE32" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AF32" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="n">
         <v>3.0</v>
@@ -7480,16 +7591,16 @@
         <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45436.0</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -7498,7 +7609,7 @@
         <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I33" t="n">
         <v>1.1</v>
@@ -7537,7 +7648,7 @@
         <v>12.0</v>
       </c>
       <c r="U33" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="V33" t="n">
         <v>3.0</v>
@@ -7549,16 +7660,16 @@
         <v>23.0</v>
       </c>
       <c r="Y33" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="Z33" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA33" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB33" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC33" t="n">
         <v>3.0</v>
@@ -7567,10 +7678,10 @@
         <v>1.0</v>
       </c>
       <c r="AE33" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="n">
         <v>3.0</v>
@@ -7686,16 +7797,16 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45437.0</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -7704,7 +7815,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I34" t="n">
         <v>0.7</v>
@@ -7743,7 +7854,7 @@
         <v>27.0</v>
       </c>
       <c r="U34" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V34" t="n">
         <v>1.0</v>
@@ -7755,16 +7866,16 @@
         <v>39.0</v>
       </c>
       <c r="Y34" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Z34" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA34" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB34" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC34" t="n">
         <v>9.0</v>
@@ -7773,10 +7884,10 @@
         <v>0.0</v>
       </c>
       <c r="AE34" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AF34" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="n">
         <v>1.0</v>
@@ -7892,16 +8003,16 @@
         <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45437.0</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -7910,7 +8021,7 @@
         <v>0.0</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I35" t="n">
         <v>0.7</v>
@@ -7949,7 +8060,7 @@
         <v>11.0</v>
       </c>
       <c r="U35" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V35" t="n">
         <v>1.0</v>
@@ -7961,16 +8072,16 @@
         <v>23.0</v>
       </c>
       <c r="Y35" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Z35" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA35" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB35" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC35" t="n">
         <v>4.0</v>
@@ -7979,10 +8090,10 @@
         <v>0.0</v>
       </c>
       <c r="AE35" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AF35" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="n">
         <v>1.0</v>
@@ -8098,16 +8209,16 @@
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45437.0</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -8116,7 +8227,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I36" t="n">
         <v>0.4</v>
@@ -8155,7 +8266,7 @@
         <v>17.0</v>
       </c>
       <c r="U36" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="V36" t="n">
         <v>0.0</v>
@@ -8167,16 +8278,16 @@
         <v>27.0</v>
       </c>
       <c r="Y36" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Z36" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA36" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB36" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC36" t="n">
         <v>7.0</v>
@@ -8185,10 +8296,10 @@
         <v>0.0</v>
       </c>
       <c r="AE36" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="AG36" t="n">
         <v>0.0</v>
@@ -8304,16 +8415,16 @@
         <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45438.0</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F37" t="n">
         <v>1.0</v>
@@ -8322,7 +8433,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I37" t="n">
         <v>1.0</v>
@@ -8361,7 +8472,7 @@
         <v>18.0</v>
       </c>
       <c r="U37" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V37" t="n">
         <v>1.0</v>
@@ -8373,16 +8484,16 @@
         <v>29.0</v>
       </c>
       <c r="Y37" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="Z37" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA37" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB37" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC37" t="n">
         <v>8.0</v>
@@ -8391,10 +8502,10 @@
         <v>2.0</v>
       </c>
       <c r="AE37" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AF37" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="n">
         <v>1.0</v>
@@ -8510,16 +8621,16 @@
         <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45438.0</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -8528,7 +8639,7 @@
         <v>1.0</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I38" t="n">
         <v>0.5</v>
@@ -8567,7 +8678,7 @@
         <v>15.0</v>
       </c>
       <c r="U38" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="V38" t="n">
         <v>1.0</v>
@@ -8579,16 +8690,16 @@
         <v>31.0</v>
       </c>
       <c r="Y38" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Z38" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA38" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB38" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC38" t="n">
         <v>6.0</v>
@@ -8597,10 +8708,10 @@
         <v>1.0</v>
       </c>
       <c r="AE38" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="n">
         <v>1.0</v>
@@ -8716,16 +8827,16 @@
         <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45438.0</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -8734,7 +8845,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I39" t="n">
         <v>2.3</v>
@@ -8773,7 +8884,7 @@
         <v>13.0</v>
       </c>
       <c r="U39" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="V39" t="n">
         <v>3.0</v>
@@ -8785,16 +8896,16 @@
         <v>24.0</v>
       </c>
       <c r="Y39" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Z39" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA39" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB39" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC39" t="n">
         <v>1.0</v>
@@ -8803,10 +8914,10 @@
         <v>0.0</v>
       </c>
       <c r="AE39" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AF39" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AG39" t="n">
         <v>3.0</v>
@@ -8922,16 +9033,16 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45438.0</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -8940,7 +9051,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I40" t="n">
         <v>0.5</v>
@@ -8979,7 +9090,7 @@
         <v>22.0</v>
       </c>
       <c r="U40" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V40" t="n">
         <v>2.0</v>
@@ -8991,16 +9102,16 @@
         <v>36.0</v>
       </c>
       <c r="Y40" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Z40" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA40" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB40" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC40" t="n">
         <v>6.0</v>
@@ -9009,10 +9120,10 @@
         <v>0.0</v>
       </c>
       <c r="AE40" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AF40" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="n">
         <v>2.0</v>
@@ -9128,16 +9239,16 @@
         <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45439.0</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
@@ -9146,7 +9257,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I41" t="n">
         <v>2.0</v>
@@ -9185,7 +9296,7 @@
         <v>8.0</v>
       </c>
       <c r="U41" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="V41" t="n">
         <v>2.0</v>
@@ -9197,16 +9308,16 @@
         <v>22.0</v>
       </c>
       <c r="Y41" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Z41" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA41" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB41" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC41" t="n">
         <v>7.0</v>
@@ -9215,10 +9326,10 @@
         <v>0.0</v>
       </c>
       <c r="AE41" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AF41" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AG41" t="n">
         <v>2.0</v>
@@ -9334,16 +9445,16 @@
         <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45439.0</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F42" t="n">
         <v>1.0</v>
@@ -9352,7 +9463,7 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I42" t="n">
         <v>1.2</v>
@@ -9391,7 +9502,7 @@
         <v>11.0</v>
       </c>
       <c r="U42" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V42" t="n">
         <v>2.0</v>
@@ -9403,16 +9514,16 @@
         <v>25.0</v>
       </c>
       <c r="Y42" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Z42" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA42" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB42" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC42" t="n">
         <v>8.0</v>
@@ -9421,10 +9532,10 @@
         <v>1.0</v>
       </c>
       <c r="AE42" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AF42" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AG42" t="n">
         <v>2.0</v>
@@ -9540,16 +9651,16 @@
         <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45444.0</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -9558,7 +9669,7 @@
         <v>0.0</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I43" t="n">
         <v>1.6</v>
@@ -9597,7 +9708,7 @@
         <v>11.0</v>
       </c>
       <c r="U43" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V43" t="n">
         <v>1.0</v>
@@ -9609,16 +9720,16 @@
         <v>20.0</v>
       </c>
       <c r="Y43" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Z43" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA43" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB43" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC43" t="n">
         <v>2.0</v>
@@ -9627,10 +9738,10 @@
         <v>0.0</v>
       </c>
       <c r="AE43" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AF43" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AG43" t="n">
         <v>1.0</v>
@@ -9746,16 +9857,16 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45444.0</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F44" t="n">
         <v>1.0</v>
@@ -9764,10 +9875,10 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J44" t="n">
         <v>1.0</v>
@@ -9803,7 +9914,7 @@
         <v>14.0</v>
       </c>
       <c r="U44" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V44" t="n">
         <v>1.0</v>
@@ -9815,16 +9926,16 @@
         <v>24.0</v>
       </c>
       <c r="Y44" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Z44" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA44" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB44" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC44" t="n">
         <v>7.0</v>
@@ -9833,10 +9944,10 @@
         <v>1.0</v>
       </c>
       <c r="AE44" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF44" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AG44" t="n">
         <v>1.0</v>
@@ -9952,16 +10063,16 @@
         <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45444.0</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F45" t="n">
         <v>1.0</v>
@@ -9970,7 +10081,7 @@
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I45" t="n">
         <v>0.7</v>
@@ -10006,10 +10117,10 @@
         <v>7.0</v>
       </c>
       <c r="T45" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="U45" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V45" t="n">
         <v>2.0</v>
@@ -10018,19 +10129,19 @@
         <v>13.0</v>
       </c>
       <c r="X45" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y45" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Z45" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA45" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB45" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC45" t="n">
         <v>4.0</v>
@@ -10039,10 +10150,10 @@
         <v>0.0</v>
       </c>
       <c r="AE45" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AF45" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="n">
         <v>2.0</v>
@@ -10158,16 +10269,16 @@
         <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45445.0</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F46" t="n">
         <v>1.0</v>
@@ -10176,7 +10287,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I46" t="n">
         <v>1.8</v>
@@ -10215,7 +10326,7 @@
         <v>12.0</v>
       </c>
       <c r="U46" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="V46" t="n">
         <v>1.0</v>
@@ -10227,16 +10338,16 @@
         <v>27.0</v>
       </c>
       <c r="Y46" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Z46" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA46" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB46" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC46" t="n">
         <v>9.0</v>
@@ -10245,10 +10356,10 @@
         <v>1.0</v>
       </c>
       <c r="AE46" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AF46" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AG46" t="n">
         <v>1.0</v>
@@ -10364,16 +10475,16 @@
         <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45445.0</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F47" t="n">
         <v>1.0</v>
@@ -10382,10 +10493,10 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J47" t="n">
         <v>0.1</v>
@@ -10421,7 +10532,7 @@
         <v>16.0</v>
       </c>
       <c r="U47" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V47" t="n">
         <v>2.0</v>
@@ -10433,16 +10544,16 @@
         <v>31.0</v>
       </c>
       <c r="Y47" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Z47" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA47" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB47" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC47" t="n">
         <v>8.0</v>
@@ -10451,10 +10562,10 @@
         <v>0.0</v>
       </c>
       <c r="AE47" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AF47" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="AG47" t="n">
         <v>2.0</v>
@@ -10570,16 +10681,16 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45445.0</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F48" t="n">
         <v>2.0</v>
@@ -10588,13 +10699,13 @@
         <v>4.0</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I48" t="n">
         <v>1.4</v>
       </c>
       <c r="J48" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="K48" t="n">
         <v>3.0</v>
@@ -10627,7 +10738,7 @@
         <v>16.0</v>
       </c>
       <c r="U48" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="V48" t="n">
         <v>6.0</v>
@@ -10639,16 +10750,16 @@
         <v>27.0</v>
       </c>
       <c r="Y48" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Z48" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA48" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB48" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC48" t="n">
         <v>4.0</v>
@@ -10657,10 +10768,10 @@
         <v>0.0</v>
       </c>
       <c r="AE48" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="AF48" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="AG48" t="n">
         <v>6.0</v>
@@ -10776,16 +10887,16 @@
         <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45445.0</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -10794,10 +10905,10 @@
         <v>1.0</v>
       </c>
       <c r="H49" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J49" t="n">
         <v>0.5</v>
@@ -10830,10 +10941,10 @@
         <v>10.0</v>
       </c>
       <c r="T49" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="U49" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="V49" t="n">
         <v>3.0</v>
@@ -10842,19 +10953,19 @@
         <v>7.0</v>
       </c>
       <c r="X49" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="Y49" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Z49" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA49" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB49" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC49" t="n">
         <v>6.0</v>
@@ -10863,10 +10974,10 @@
         <v>0.0</v>
       </c>
       <c r="AE49" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AF49" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="AG49" t="n">
         <v>3.0</v>
@@ -10982,16 +11093,16 @@
         <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45445.0</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -11000,13 +11111,13 @@
         <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I50" t="n">
         <v>2.7</v>
       </c>
       <c r="J50" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K50" t="n">
         <v>3.0</v>
@@ -11036,10 +11147,10 @@
         <v>13.0</v>
       </c>
       <c r="T50" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="U50" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="V50" t="n">
         <v>4.0</v>
@@ -11048,19 +11159,19 @@
         <v>11.0</v>
       </c>
       <c r="X50" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y50" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Z50" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA50" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AB50" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AC50" t="n">
         <v>4.0</v>
@@ -11069,10 +11180,10 @@
         <v>0.0</v>
       </c>
       <c r="AE50" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AF50" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="AG50" t="n">
         <v>4.0</v>
@@ -11188,16 +11299,16 @@
         <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45446.0</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -11206,7 +11317,7 @@
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I51" t="n">
         <v>1.4</v>
@@ -11245,7 +11356,7 @@
         <v>21.0</v>
       </c>
       <c r="U51" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="V51" t="n">
         <v>1.0</v>
@@ -11257,16 +11368,16 @@
         <v>26.0</v>
       </c>
       <c r="Y51" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Z51" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA51" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB51" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC51" t="n">
         <v>5.0</v>
@@ -11275,10 +11386,10 @@
         <v>0.0</v>
       </c>
       <c r="AE51" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AF51" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="n">
         <v>1.0</v>
@@ -11394,16 +11505,16 @@
         <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45446.0</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -11412,10 +11523,10 @@
         <v>0.0</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J52" t="n">
         <v>1.0</v>
@@ -11451,7 +11562,7 @@
         <v>12.0</v>
       </c>
       <c r="U52" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="V52" t="n">
         <v>0.0</v>
@@ -11463,16 +11574,16 @@
         <v>26.0</v>
       </c>
       <c r="Y52" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Z52" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA52" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB52" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC52" t="n">
         <v>9.0</v>
@@ -11481,10 +11592,10 @@
         <v>0.0</v>
       </c>
       <c r="AE52" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AF52" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="AG52" t="n">
         <v>0.0</v>
@@ -11600,16 +11711,16 @@
         <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45446.0</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F53" t="n">
         <v>1.0</v>
@@ -11618,13 +11729,13 @@
         <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I53" t="n">
         <v>1.5</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K53" t="n">
         <v>3.0</v>
@@ -11639,10 +11750,10 @@
         <v>0.0</v>
       </c>
       <c r="O53" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q53" t="n">
         <v>5.0</v>
@@ -11657,7 +11768,7 @@
         <v>13.0</v>
       </c>
       <c r="U53" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="V53" t="n">
         <v>2.0</v>
@@ -11669,16 +11780,16 @@
         <v>20.0</v>
       </c>
       <c r="Y53" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Z53" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AA53" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AB53" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC53" t="n">
         <v>5.0</v>
@@ -11687,10 +11798,10 @@
         <v>0.0</v>
       </c>
       <c r="AE53" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AF53" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="AG53" t="n">
         <v>2.0</v>
@@ -11798,6 +11909,3508 @@
         <v>0.0</v>
       </c>
       <c r="BP53" t="n">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45447.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>165</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U54" t="s">
+        <v>176</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>774.0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45447.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U55" t="s">
+        <v>170</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>819.0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45447.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>165</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U56" t="s">
+        <v>172</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>6600.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1225.0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1225.0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>701.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>141.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45455.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>179</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45455.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U58" t="s">
+        <v>182</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>740.0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45455.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U59" t="s">
+        <v>182</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>3250.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>3795.0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>158.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45455.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U60" t="s">
+        <v>182</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45456.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>170</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45456.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U62" t="s">
+        <v>179</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45456.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>166</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U63" t="s">
+        <v>170</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1375.0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45456.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U64" t="s">
+        <v>170</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>972.0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1530.0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45456.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U65" t="s">
+        <v>176</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45457.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>166</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U66" t="s">
+        <v>182</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1155.0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45457.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U67" t="s">
+        <v>175</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2275.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>731.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45458.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>166</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U68" t="s">
+        <v>182</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1773.0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>2160.0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45458.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>166</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U69" t="s">
+        <v>175</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45458.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>167</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U70" t="s">
+        <v>179</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP70" t="n">
         <v>76.0</v>
       </c>
     </row>
